--- a/Testing plan.xlsx
+++ b/Testing plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
   <si>
     <t>Control Flow testing</t>
   </si>
@@ -420,6 +420,24 @@
   </si>
   <si>
     <t>CFS(s)</t>
+  </si>
+  <si>
+    <t>1.0|</t>
+  </si>
+  <si>
+    <t>2.0|</t>
+  </si>
+  <si>
+    <t>3.0|</t>
+  </si>
+  <si>
+    <t>4.0|</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -470,11 +488,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,10 +815,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1662,10 +1688,10 @@
         <v>123</v>
       </c>
       <c r="E76" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>126</v>
@@ -1682,29 +1708,478 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="1">
+        <v>34</v>
+      </c>
+      <c r="F77" s="1">
+        <v>126</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
+      <c r="B78" s="4">
+        <v>5</v>
+      </c>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="1">
+        <v>201</v>
+      </c>
+      <c r="F78" s="1">
+        <v>201</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J78" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="1">
+        <v>181</v>
+      </c>
+      <c r="F79" s="1">
+        <v>182</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J79" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="1">
+        <v>251</v>
+      </c>
+      <c r="F80" s="1">
+        <v>253</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J80" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="1">
+        <v>96</v>
+      </c>
+      <c r="F81" s="1">
+        <v>126</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="4">
+        <v>7</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="1">
+        <v>350</v>
+      </c>
+      <c r="F82" s="1">
+        <v>81</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="1">
+        <v>34</v>
+      </c>
+      <c r="F83" s="1">
+        <v>126</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="1">
+        <v>85</v>
+      </c>
+      <c r="F84" s="1">
+        <v>260</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J84" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="1">
+        <v>41</v>
+      </c>
+      <c r="F85" s="1">
+        <v>40</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J85" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="5">
+        <v>6</v>
+      </c>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E86" s="1">
+        <v>116</v>
+      </c>
+      <c r="F86" s="1">
+        <v>296</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J86" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" s="1">
+        <v>73</v>
+      </c>
+      <c r="F87" s="1">
+        <v>74</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="1">
+        <v>50</v>
+      </c>
+      <c r="F88" s="1">
+        <v>236</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J88" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E89" s="1">
+        <v>341</v>
+      </c>
+      <c r="F89" s="1">
+        <v>188</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J89" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="4">
+        <v>8</v>
+      </c>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E90" s="1">
+        <v>181</v>
+      </c>
+      <c r="F90" s="1">
+        <v>91</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J90" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="B91" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="1">
+        <v>21</v>
+      </c>
+      <c r="F91" s="1">
+        <v>325</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J91" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="B92" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="1">
+        <v>288</v>
+      </c>
+      <c r="F92" s="1">
+        <v>279</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J92" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="B93" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="1">
+        <v>237</v>
+      </c>
+      <c r="F93" s="1">
+        <v>236</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing plan.xlsx
+++ b/Testing plan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="146">
   <si>
     <t>Control Flow testing</t>
   </si>
@@ -392,9 +392,6 @@
     <t>Tests to perform:</t>
   </si>
   <si>
-    <t>Test number</t>
-  </si>
-  <si>
     <t>In good/bad flag</t>
   </si>
   <si>
@@ -438,6 +435,33 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>4.1.1, 1.1.2, 3.1.2</t>
+  </si>
+  <si>
+    <t>2.5.3, 2.1.1</t>
+  </si>
+  <si>
+    <t>(actual minus desired)</t>
+  </si>
+  <si>
+    <t>2.1.2, 2.3.1, [3.1.2]</t>
+  </si>
+  <si>
+    <t>1.2.1, 4.2.1, 1.1.1, 2.1.3, 2.2.2, 2.3.2, 2.4.2, 2.5.6</t>
+  </si>
+  <si>
+    <t>Only the first instance of a particular CFS is noted in the table (except in cases of special interest, where duplicate CFS is noted in [])</t>
+  </si>
+  <si>
+    <t>Test case number</t>
   </si>
 </sst>
 </file>
@@ -461,7 +485,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -484,11 +508,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -501,6 +536,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -815,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="F92" sqref="F92"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,12 +865,12 @@
     <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -842,7 +878,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -850,7 +886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -858,22 +894,22 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
@@ -882,8 +918,11 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -896,8 +935,11 @@
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
         <v>24</v>
@@ -908,8 +950,11 @@
       <c r="D11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +967,11 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -933,7 +981,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,8 +994,11 @@
       <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>29</v>
@@ -958,8 +1009,11 @@
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>30</v>
@@ -970,8 +1024,11 @@
       <c r="D17" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,8 +1041,11 @@
       <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
         <v>32</v>
@@ -996,8 +1056,11 @@
       <c r="D19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>33</v>
@@ -1008,8 +1071,11 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
@@ -1022,8 +1088,11 @@
       <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
         <v>38</v>
@@ -1034,8 +1103,11 @@
       <c r="D22" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
@@ -1048,8 +1120,11 @@
       <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>43</v>
@@ -1060,8 +1135,11 @@
       <c r="D24" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>45</v>
       </c>
@@ -1074,8 +1152,11 @@
       <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
         <v>47</v>
@@ -1086,8 +1167,11 @@
       <c r="D26" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
         <v>48</v>
@@ -1098,8 +1182,11 @@
       <c r="D27" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>49</v>
@@ -1110,8 +1197,11 @@
       <c r="D28" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>50</v>
@@ -1122,8 +1212,11 @@
       <c r="D29" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
         <v>56</v>
@@ -1134,8 +1227,11 @@
       <c r="D30" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>59</v>
       </c>
@@ -1145,7 +1241,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>60</v>
       </c>
@@ -1158,8 +1254,11 @@
       <c r="D33" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>75</v>
@@ -1170,13 +1269,16 @@
       <c r="D34" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>64</v>
       </c>
@@ -1186,7 +1288,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>67</v>
       </c>
@@ -1199,8 +1301,11 @@
       <c r="D38" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
         <v>71</v>
@@ -1211,8 +1316,11 @@
       <c r="D39" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="1" t="s">
         <v>70</v>
@@ -1223,18 +1331,21 @@
       <c r="D40" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -1242,7 +1353,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>20</v>
       </c>
@@ -1250,7 +1361,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>20</v>
       </c>
@@ -1258,7 +1369,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>20</v>
       </c>
@@ -1266,7 +1377,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>20</v>
       </c>
@@ -1579,7 +1690,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>114</v>
       </c>
@@ -1599,7 +1710,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>115</v>
       </c>
@@ -1619,12 +1730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -1632,7 +1743,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -1640,197 +1751,204 @@
         <v>117</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
       <c r="B73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="E77" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G76" s="1" t="s">
+      <c r="H77" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J77" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J76" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1" t="s">
+      <c r="K77" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E78" s="1">
         <v>34</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F78" s="1">
         <v>126</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
-      <c r="B78" s="4">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78">
+        <f>F78-E78</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>2</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" s="1">
+        <v>50</v>
+      </c>
+      <c r="F79" s="1">
+        <v>0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79">
+        <f t="shared" ref="K79:K95" si="0">F79-E79</f>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>3</v>
+      </c>
+      <c r="B80" s="1">
         <v>5</v>
       </c>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="1">
-        <v>201</v>
-      </c>
-      <c r="F78" s="1">
-        <v>201</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J78" s="6">
+      <c r="C80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
-      <c r="B79" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E79" s="1">
-        <v>181</v>
-      </c>
-      <c r="F79" s="1">
-        <v>182</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J79" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E80" s="1">
-        <v>251</v>
-      </c>
       <c r="F80" s="1">
-        <v>253</v>
+        <v>360</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>88</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J80" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="4">
-        <v>1.5</v>
-      </c>
-      <c r="C81" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="J80" s="6">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>4</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E81" s="1">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="F81" s="1">
-        <v>126</v>
+        <v>182</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>88</v>
@@ -1838,58 +1956,74 @@
       <c r="I81" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J81" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
+      <c r="J81" s="7">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>5</v>
+      </c>
       <c r="B82" s="4">
-        <v>7</v>
-      </c>
-      <c r="C82" s="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E82" s="1">
-        <v>350</v>
+        <v>251</v>
       </c>
       <c r="F82" s="1">
-        <v>81</v>
+        <v>253</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J82" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="1"/>
+      <c r="J82" s="7">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>6</v>
+      </c>
       <c r="B83" s="4">
-        <v>2.5</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E83" s="1">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="F83" s="1">
         <v>126</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>89</v>
@@ -1897,52 +2031,68 @@
       <c r="J83" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
+      <c r="K83">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>7</v>
+      </c>
       <c r="B84" s="4">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C84" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D84" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E84" s="1">
-        <v>85</v>
+        <v>350</v>
       </c>
       <c r="F84" s="1">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I84" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J84" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="1"/>
-      <c r="B85" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C85" s="1"/>
+      <c r="J84" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="0"/>
+        <v>-269</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>8</v>
+      </c>
+      <c r="B85" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D85" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E85" s="1">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F85" s="1">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>105</v>
@@ -1950,111 +2100,139 @@
       <c r="I85" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J85" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="1"/>
-      <c r="B86" s="5">
-        <v>6</v>
-      </c>
-      <c r="C86" s="1"/>
+      <c r="J85" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>9</v>
+      </c>
+      <c r="B86" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="D86" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E86" s="1">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="F86" s="1">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>100</v>
+      <c r="I86" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="J86" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>10</v>
+      </c>
       <c r="B87" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E87" s="1">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="F87" s="1">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>105</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="J87" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="1"/>
-      <c r="B88" s="4">
-        <v>3.3</v>
+      <c r="K87">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>11</v>
+      </c>
+      <c r="B88" s="5">
+        <v>6</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E88" s="1">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="F88" s="1">
-        <v>236</v>
+        <v>296</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H88" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>107</v>
+      <c r="I88" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="J88" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="1"/>
-      <c r="B89" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="C89" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>12</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D89" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E89" s="1">
-        <v>341</v>
+        <v>73</v>
       </c>
       <c r="F89" s="1">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>105</v>
@@ -2062,58 +2240,72 @@
       <c r="I89" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J89" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="1"/>
+      <c r="J89" s="7">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>13</v>
+      </c>
       <c r="B90" s="4">
-        <v>8</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>3.3</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>140</v>
+      </c>
       <c r="D90" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E90" s="1">
-        <v>181</v>
+        <v>50</v>
       </c>
       <c r="F90" s="1">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J90" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-      <c r="B91" s="5">
-        <v>4.5</v>
+      <c r="J90" s="7">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>14</v>
+      </c>
+      <c r="B91" s="4">
+        <v>3.5</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E91" s="1">
-        <v>21</v>
+        <v>341</v>
       </c>
       <c r="F91" s="1">
-        <v>325</v>
+        <v>188</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>107</v>
@@ -2121,52 +2313,64 @@
       <c r="J91" s="7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="1"/>
+      <c r="K91">
+        <f t="shared" si="0"/>
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>15</v>
+      </c>
       <c r="B92" s="4">
-        <v>4.4000000000000004</v>
+        <v>8</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E92" s="1">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="F92" s="1">
-        <v>279</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J92" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="1"/>
-      <c r="B93" s="5" t="s">
-        <v>135</v>
+      <c r="J92" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>16</v>
+      </c>
+      <c r="B93" s="5">
+        <v>4.5</v>
       </c>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E93" s="1">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="F93" s="1">
-        <v>236</v>
+        <v>325</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>88</v>
@@ -2174,8 +2378,82 @@
       <c r="I93" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>17</v>
+      </c>
+      <c r="B94" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="1">
+        <v>288</v>
+      </c>
+      <c r="F94" s="1">
+        <v>279</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J94" s="7">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>18</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="1">
+        <v>237</v>
+      </c>
+      <c r="F95" s="1">
+        <v>236</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J95" s="7">
         <v>0</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="0"/>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Testing plan.xlsx
+++ b/Testing plan.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="148">
   <si>
     <t>Control Flow testing</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>Test case number</t>
+  </si>
+  <si>
+    <t>NOTE: Unit testing will be performed separately from quadrant testing; CFS numbers have not been updated since final code changes.</t>
+  </si>
+  <si>
+    <t>[this test will be covered by unit testing, not part of quadrant testing]</t>
   </si>
 </sst>
 </file>
@@ -477,12 +483,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -523,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -537,6 +549,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -851,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A85" sqref="A85:XFD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -862,476 +878,535 @@
     <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
+      <c r="B1" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>21</v>
       </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>26</v>
       </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="11" t="s">
         <v>138</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="11" t="s">
         <v>138</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="11" t="s">
         <v>138</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+    </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="11" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -1734,21 +1809,21 @@
       <c r="A68" t="s">
         <v>18</v>
       </c>
+      <c r="B68" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
-      <c r="B69" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -1756,7 +1831,7 @@
         <v>20</v>
       </c>
       <c r="B71" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -1764,7 +1839,7 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -1772,7 +1847,7 @@
         <v>20</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -1780,121 +1855,95 @@
         <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B78" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D78" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E78" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="G78" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I78" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J78" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="K77" s="8" t="s">
+      <c r="K78" s="8" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>1</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E78" s="1">
-        <v>34</v>
-      </c>
-      <c r="F78" s="1">
-        <v>126</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78">
-        <f>F78-E78</f>
-        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E79" s="1">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="F79" s="1">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="H79" s="1"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79">
-        <f t="shared" ref="K79:K95" si="0">F79-E79</f>
-        <v>-50</v>
+        <f>F79-E79</f>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1">
         <v>5</v>
@@ -1924,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="K80">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="K80:K95" si="0">F80-E80</f>
         <v>360</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>131</v>
@@ -1966,7 +2015,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="4">
         <v>1.1000000000000001</v>
@@ -2002,7 +2051,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B83" s="4">
         <v>1.5</v>
@@ -2038,7 +2087,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B84" s="4">
         <v>7</v>
@@ -2058,402 +2107,420 @@
       <c r="G84" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J84" s="7" t="s">
-        <v>97</v>
-      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="7"/>
       <c r="K84">
         <f t="shared" si="0"/>
         <v>-269</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>8</v>
-      </c>
-      <c r="B85" s="4">
+    <row r="85" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>7</v>
+      </c>
+      <c r="B85" s="5">
         <v>2.5</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E85" s="1">
+      <c r="D85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E85" s="2">
         <v>34</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="2">
         <v>126</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H85" s="1" t="s">
+      <c r="G85" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H85" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="12">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>9</v>
-      </c>
-      <c r="B86" s="4">
+    <row r="86" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>8</v>
+      </c>
+      <c r="B86" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E86" s="1">
+      <c r="D86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="2">
         <v>85</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
         <v>260</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H86" s="1" t="s">
+      <c r="G86" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H86" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="6">
         <v>2</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="12">
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>9</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" s="2">
+        <v>220</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J87" s="6">
+        <v>0</v>
+      </c>
+      <c r="K87" s="12">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>10</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E87" s="1">
-        <v>41</v>
-      </c>
-      <c r="F87" s="1">
-        <v>40</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H87" s="1" t="s">
+      <c r="B88" s="5">
+        <v>6</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E88" s="2">
+        <v>116</v>
+      </c>
+      <c r="F88" s="2">
+        <v>296</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H88" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J87" s="7">
+      <c r="I88" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J88" s="6">
         <v>0</v>
       </c>
-      <c r="K87">
+      <c r="K88" s="12">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>11</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="2">
+        <v>73</v>
+      </c>
+      <c r="F89" s="2">
+        <v>254</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I89" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J89" s="6">
+        <v>0</v>
+      </c>
+      <c r="K89" s="12">
+        <f t="shared" si="0"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>12</v>
+      </c>
+      <c r="B90" s="5">
+        <v>3.3</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E90" s="2">
+        <v>50</v>
+      </c>
+      <c r="F90" s="2">
+        <v>236</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J90" s="6">
+        <v>3</v>
+      </c>
+      <c r="K90" s="12">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>13</v>
+      </c>
+      <c r="B91" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="2">
+        <v>341</v>
+      </c>
+      <c r="F91" s="2">
+        <v>188</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J91" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K91" s="12">
+        <f t="shared" si="0"/>
+        <v>-153</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>14</v>
+      </c>
+      <c r="B92" s="5">
+        <v>8</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="2">
+        <v>181</v>
+      </c>
+      <c r="F92" s="2">
+        <v>91</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="12">
+        <f t="shared" si="0"/>
+        <v>-90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>15</v>
+      </c>
+      <c r="B93" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E93" s="2">
+        <v>21</v>
+      </c>
+      <c r="F93" s="2">
+        <v>325</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J93" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="K93" s="12">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>16</v>
+      </c>
+      <c r="B94" s="5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E94" s="2">
+        <v>288</v>
+      </c>
+      <c r="F94" s="2">
+        <v>279</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J94" s="6">
+        <v>4</v>
+      </c>
+      <c r="K94" s="12">
+        <f t="shared" si="0"/>
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>17</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E95" s="2">
+        <v>237</v>
+      </c>
+      <c r="F95" s="2">
+        <v>236</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="J95" s="6">
+        <v>0</v>
+      </c>
+      <c r="K95" s="12">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>11</v>
-      </c>
-      <c r="B88" s="5">
-        <v>6</v>
-      </c>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E88" s="1">
-        <v>116</v>
-      </c>
-      <c r="F88" s="1">
-        <v>296</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="J88" s="7">
+    <row r="96" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D96" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E96" s="10">
+        <v>50</v>
+      </c>
+      <c r="F96" s="10">
         <v>0</v>
       </c>
-      <c r="K88">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>12</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E89" s="1">
-        <v>73</v>
-      </c>
-      <c r="F89" s="1">
-        <v>74</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J89" s="7">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>13</v>
-      </c>
-      <c r="B90" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" s="1">
-        <v>50</v>
-      </c>
-      <c r="F90" s="1">
-        <v>236</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J90" s="7">
-        <v>3</v>
-      </c>
-      <c r="K90">
-        <f t="shared" si="0"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>14</v>
-      </c>
-      <c r="B91" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E91" s="1">
-        <v>341</v>
-      </c>
-      <c r="F91" s="1">
-        <v>188</v>
-      </c>
-      <c r="G91" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K91">
-        <f t="shared" si="0"/>
-        <v>-153</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>15</v>
-      </c>
-      <c r="B92" s="4">
-        <v>8</v>
-      </c>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E92" s="1">
-        <v>181</v>
-      </c>
-      <c r="F92" s="1">
-        <v>91</v>
-      </c>
-      <c r="G92" s="1" t="s">
+      <c r="G96" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="H92" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="0"/>
-        <v>-90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>16</v>
-      </c>
-      <c r="B93" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="1">
-        <v>21</v>
-      </c>
-      <c r="F93" s="1">
-        <v>325</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K93">
-        <f t="shared" si="0"/>
-        <v>304</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>17</v>
-      </c>
-      <c r="B94" s="4">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E94" s="1">
-        <v>288</v>
-      </c>
-      <c r="F94" s="1">
-        <v>279</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J94" s="7">
-        <v>4</v>
-      </c>
-      <c r="K94">
-        <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>18</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E95" s="1">
-        <v>237</v>
-      </c>
-      <c r="F95" s="1">
-        <v>236</v>
-      </c>
-      <c r="G95" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J95" s="7">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <f t="shared" si="0"/>
-        <v>-1</v>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="9">
+        <f>F96-E96</f>
+        <v>-50</v>
       </c>
     </row>
   </sheetData>
